--- a/Data.xlsx
+++ b/Data.xlsx
@@ -471,10 +471,10 @@
         <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E2" t="n">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -503,7 +503,7 @@
         <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -518,7 +518,7 @@
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -533,7 +533,7 @@
         <v>0.3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
